--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,163 +55,166 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>family</t>
+    <t>cooke</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
+    <t>cook</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2868217054263566</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -717,13 +720,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +746,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8828125</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +772,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8671875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -821,13 +824,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7792207792207793</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -847,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7555555555555555</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -873,13 +876,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -899,13 +902,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.70995670995671</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L12">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -917,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -925,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6440677966101694</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -951,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6576271186440678</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -969,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -977,13 +980,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1003,13 +1006,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6260032102728732</v>
+        <v>0.6364365971107544</v>
       </c>
       <c r="L16">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="M16">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1029,13 +1032,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6122448979591837</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1047,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1055,13 +1058,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6111111111111112</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1081,13 +1084,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6029411764705882</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1107,13 +1110,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5873015873015873</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1133,13 +1136,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1159,13 +1162,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L22">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1185,13 +1188,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.543859649122807</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1211,13 +1214,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5288461538461539</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1229,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1237,13 +1240,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5076923076923077</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1255,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1263,13 +1266,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5029940119760479</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1281,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1289,13 +1292,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1307,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1315,13 +1318,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1341,13 +1344,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4871794871794872</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1367,13 +1370,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.4819277108433735</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1385,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1393,13 +1396,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4605263157894737</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1411,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1419,13 +1422,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1445,13 +1448,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4285714285714285</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1471,13 +1474,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3975903614457831</v>
+        <v>0.41</v>
       </c>
       <c r="L34">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1489,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1497,13 +1500,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3703703703703703</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1523,13 +1526,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3455882352941176</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L36">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1541,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>267</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1549,13 +1552,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1567,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1575,13 +1578,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3229571984435798</v>
+        <v>0.3151750972762646</v>
       </c>
       <c r="L38">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M38">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1601,13 +1604,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2932330827067669</v>
+        <v>0.3063063063063063</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1619,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1627,13 +1630,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2877697841726619</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1653,13 +1656,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.2780821917808219</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L41">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1671,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>527</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1679,13 +1682,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2685185185185185</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1697,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>79</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1705,13 +1708,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2440191387559809</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1723,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1731,13 +1734,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.2317880794701987</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="M44">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1749,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1757,13 +1760,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.2271259418729817</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="L45">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="M45">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>718</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1783,13 +1786,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2080536912751678</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1801,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>118</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1809,13 +1812,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1974921630094044</v>
+        <v>0.2052980132450331</v>
       </c>
       <c r="L47">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>256</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1835,13 +1838,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1748344370860927</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="L48">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1853,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>623</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1861,13 +1864,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1726342710997442</v>
+        <v>0.1814569536423841</v>
       </c>
       <c r="L49">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M49">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1879,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>647</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1887,13 +1890,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.1293800539083558</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L50">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="M50">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1905,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>323</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1913,13 +1916,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.121654501216545</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M51">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1931,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>361</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1939,13 +1942,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1202749140893471</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L52">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M52">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1957,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>256</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1965,13 +1968,13 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.09210526315789473</v>
+        <v>0.123989218328841</v>
       </c>
       <c r="L53">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M53">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -1983,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>414</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1991,13 +1994,13 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.08636363636363636</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2009,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>402</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2017,13 +2020,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.07875894988066826</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="L55">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2035,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2043,25 +2046,25 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.06743185078909612</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L56">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M56">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N56">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>650</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2069,13 +2072,13 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.05503731343283582</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="L57">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M57">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2087,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>1013</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2095,25 +2098,51 @@
         <v>65</v>
       </c>
       <c r="K58">
-        <v>0.02857142857142857</v>
+        <v>0.06312769010043041</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>1122</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59">
+        <v>0.05788982259570495</v>
+      </c>
+      <c r="L59">
+        <v>62</v>
+      </c>
+      <c r="M59">
+        <v>63</v>
+      </c>
+      <c r="N59">
+        <v>0.98</v>
+      </c>
+      <c r="O59">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
